--- a/bookingSystem/Data/TimeData.xlsx
+++ b/bookingSystem/Data/TimeData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OurHomework\bookingSystem\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1130F423-AE69-45DA-A681-5D73AE334C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E33132A-B141-4F2F-A9C8-06A87CD83AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F000990F-FE61-4C4C-A7EF-CCC344FFA807}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -74,14 +74,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,34 +395,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3DBCE-3E2D-4BF4-AEAC-9CAA2E1F24B4}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>40238</v>
-      </c>
-      <c r="B1" s="2">
-        <v>40239</v>
-      </c>
-      <c r="C1" s="2">
-        <v>40240</v>
-      </c>
-      <c r="D1" s="2">
-        <v>40241</v>
-      </c>
-      <c r="E1" s="2">
-        <v>40242</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
